--- a/Lab_2/tests.xlsx
+++ b/Lab_2/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina\Documents\Projects\Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB42ACE-AC76-4C4D-A8F6-EE9018F78C78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC3270B-E0F3-457D-96B9-E078130E986E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAC3DAFB-7BAE-4E58-AD83-3A8630205246}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -180,41 +180,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3505,6 +3508,497 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="640510624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Complex, IsContinious</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ListSequence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$76:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$64:$L$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>831.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1811.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4876.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6964.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12280.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15461.666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A801-4BEA-BBC4-9FB4ED6BE4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ArraySequence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$76:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$76:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>899.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1514.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4415.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5784.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7831.666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A801-4BEA-BBC4-9FB4ED6BE4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="612252728"/>
+        <c:axId val="612248136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="612252728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612248136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="612248136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="612252728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3871,6 +4365,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6968,6 +7502,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7705,13 +8755,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>3072</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>180053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>273459</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>157931</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7732,6 +8782,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1076</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>278754</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>182319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00F0C75-492A-4456-B77A-705E8C672C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8039,8 +9125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D96E96-5A01-4BA7-B7EC-BF0DAEA8D14E}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="W91" sqref="W91"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="59" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8053,11 +9139,11 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -8071,111 +9157,111 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1000</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>11</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>11</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>11</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <f>(D4+E4+F4)/3</f>
         <v>11</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>6</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>6</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <f>(I4+J4+K4)/3</f>
         <v>6</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>3</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>3</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <v>3</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7">
         <f>(N4+O4+P4)/3</f>
         <v>3</v>
       </c>
@@ -8183,47 +9269,47 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>6000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>476</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>475</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>492</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G13" si="0">(D5+E5+F5)/3</f>
         <v>481</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>252</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>247</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>265</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <f t="shared" ref="L5:L13" si="1">(I5+J5+K5)/3</f>
         <v>254.66666666666666</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>125</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <v>129</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <v>127</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <f t="shared" ref="Q5:Q25" si="2">(N5+O5+P5)/3</f>
         <v>127</v>
       </c>
@@ -8231,47 +9317,47 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>11000</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>1628</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1626</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>1650</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>1634.6666666666667</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
         <v>817</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>835</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>875</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>842.33333333333337</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <v>471</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <v>426</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>439</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="7">
         <f t="shared" si="2"/>
         <v>445.33333333333331</v>
       </c>
@@ -8279,47 +9365,47 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>16000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>3518</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>3599</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>3774</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>3630.3333333333335</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
         <v>1797</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>1839</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>1904</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
         <v>1846.6666666666667</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="8">
+      <c r="N7" s="6">
         <v>937</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <v>924</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <v>920</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <f t="shared" si="2"/>
         <v>927</v>
       </c>
@@ -8327,47 +9413,47 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>21000</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>6236</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>6487</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>6190</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>6304.333333333333</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>3202</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>3134</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>3239</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <f t="shared" si="1"/>
         <v>3191.6666666666665</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="8">
+      <c r="N8" s="6">
         <v>1636</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>1603</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>1601</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>1613.3333333333333</v>
       </c>
@@ -8375,47 +9461,47 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>26000</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>9587</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>9811</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>9688</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>9695.3333333333339</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>4937</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>4856</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>5000</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="7">
         <f t="shared" si="1"/>
         <v>4931</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <v>2498</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="6">
         <v>2483</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <v>2477</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="7">
         <f t="shared" si="2"/>
         <v>2486</v>
       </c>
@@ -8423,47 +9509,47 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>31000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>13972</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>13898</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>13926</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>13932</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>6975</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>6957</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>7076</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <f t="shared" si="1"/>
         <v>7002.666666666667</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="8">
+      <c r="N10" s="6">
         <v>3552</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <v>3499</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <v>3522</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="7">
         <f t="shared" si="2"/>
         <v>3524.3333333333335</v>
       </c>
@@ -8471,47 +9557,47 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>36000</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>18550</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>18725</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>18709</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>18661.333333333332</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>9348</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>9423</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>9526</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <f t="shared" si="1"/>
         <v>9432.3333333333339</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="8">
+      <c r="N11" s="6">
         <v>4779</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>4778</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>4742</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <f t="shared" si="2"/>
         <v>4766.333333333333</v>
       </c>
@@ -8519,47 +9605,47 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>41000</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>24329</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>24242</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>24133</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>24234.666666666668</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>12163</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>12138</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>12409</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <f t="shared" si="1"/>
         <v>12236.666666666666</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="8">
+      <c r="N12" s="6">
         <v>6165</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="6">
         <v>6143</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <v>6127</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="7">
         <f t="shared" si="2"/>
         <v>6145</v>
       </c>
@@ -8567,141 +9653,141 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>46000</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>30450</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>30613</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>30562</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>30541.666666666668</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
         <v>15291</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>15407</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>15774</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <f t="shared" si="1"/>
         <v>15490.666666666666</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="8">
+      <c r="N13" s="6">
         <v>7763</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="6">
         <v>7755</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <v>7711</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="7">
         <f t="shared" si="2"/>
         <v>7743</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="11" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="10"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>1000</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>4</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <f>(D16+E16+F16)/3</f>
         <v>4.666666666666667</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>5</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <v>4</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>4</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <f>(I16+J16+K16)/3</f>
         <v>4.333333333333333</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="8">
+      <c r="N16" s="6">
         <v>4</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="6">
         <v>4</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="6">
         <v>4</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -8709,47 +9795,47 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>6000</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>133</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>133</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>130</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <f t="shared" ref="G17:G25" si="3">(D17+E17+F17)/3</f>
         <v>132</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>130</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>131</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>128</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <f t="shared" ref="L17:L25" si="4">(I17+J17+K17)/3</f>
         <v>129.66666666666666</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="8">
+      <c r="N17" s="6">
         <v>127</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="6">
         <v>127</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <v>127</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="7">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
@@ -8757,47 +9843,47 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>11000</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>412</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>434</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>434</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f t="shared" si="3"/>
         <v>426.66666666666669</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>409</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>421</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>411</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <f t="shared" si="4"/>
         <v>413.66666666666669</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="8">
+      <c r="N18" s="6">
         <v>405</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="6">
         <v>411</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="6">
         <v>410</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="7">
         <f t="shared" si="2"/>
         <v>408.66666666666669</v>
       </c>
@@ -8805,47 +9891,47 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>16000</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>856</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>866</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>868</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <f t="shared" si="3"/>
         <v>863.33333333333337</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>872</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>876</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>859</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <f t="shared" si="4"/>
         <v>869</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="8">
+      <c r="N19" s="6">
         <v>848</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="6">
         <v>857</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="6">
         <v>858</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="7">
         <f t="shared" si="2"/>
         <v>854.33333333333337</v>
       </c>
@@ -8853,47 +9939,47 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>21000</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>1467</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>1495</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>1495</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <f t="shared" si="3"/>
         <v>1485.6666666666667</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>1475</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>1481</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>1499</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="7">
         <f t="shared" si="4"/>
         <v>1485</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="8">
+      <c r="N20" s="6">
         <v>1494</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="6">
         <v>1470</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="6">
         <v>1459</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="7">
         <f t="shared" si="2"/>
         <v>1474.3333333333333</v>
       </c>
@@ -8901,47 +9987,47 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>26000</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>2247</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>2271</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>2279</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <f t="shared" si="3"/>
         <v>2265.6666666666665</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>2251</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>2267</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>2269</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="7">
         <f t="shared" si="4"/>
         <v>2262.3333333333335</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="8">
+      <c r="N21" s="6">
         <v>2276</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="6">
         <v>2246</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="6">
         <v>2248</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="7">
         <f t="shared" si="2"/>
         <v>2256.6666666666665</v>
       </c>
@@ -8949,47 +10035,47 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>31000</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>3193</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>3232</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>3224</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <f t="shared" si="3"/>
         <v>3216.3333333333335</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>3188</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>3181</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>3257</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <f t="shared" si="4"/>
         <v>3208.6666666666665</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="8">
+      <c r="N22" s="6">
         <v>3229</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="6">
         <v>3148</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="6">
         <v>3199</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="7">
         <f t="shared" si="2"/>
         <v>3192</v>
       </c>
@@ -8997,47 +10083,47 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>36000</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>4306</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>4370</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>4372</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <f t="shared" si="3"/>
         <v>4349.333333333333</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>4302</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>4285</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>4318</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="7">
         <f t="shared" si="4"/>
         <v>4301.666666666667</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="8">
+      <c r="N23" s="6">
         <v>4299</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="6">
         <v>4314</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="6">
         <v>4309</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="7">
         <f t="shared" si="2"/>
         <v>4307.333333333333</v>
       </c>
@@ -9045,272 +10131,272 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>41000</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>5585</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>5588</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>5582</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <f t="shared" si="3"/>
         <v>5585</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>5573</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>5892</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>5592</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="7">
         <f t="shared" si="4"/>
         <v>5685.666666666667</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="8">
+      <c r="N24" s="6">
         <v>5611</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="6">
         <v>5582</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="6">
         <v>5604</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="7">
         <f t="shared" si="2"/>
         <v>5599</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12">
         <v>46000</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="12">
         <v>7535</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="12">
         <v>7726</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="12">
         <v>7592</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="13">
         <f t="shared" si="3"/>
         <v>7617.666666666667</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16">
+      <c r="H25" s="11"/>
+      <c r="I25" s="12">
         <v>7598</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="12">
         <v>7633</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="12">
         <v>7620</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="13">
         <f t="shared" si="4"/>
         <v>7617</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16">
+      <c r="M25" s="11"/>
+      <c r="N25" s="12">
         <v>7549</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="12">
         <v>7617</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="12">
         <v>7631</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="13">
         <f t="shared" si="2"/>
         <v>7599</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="19"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="18" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="18"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <v>1000</v>
       </c>
       <c r="D34" s="2">
@@ -9322,7 +10408,7 @@
       <c r="F34" s="2">
         <v>12</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="7">
         <f>(D34+E34+F34)/3</f>
         <v>13</v>
       </c>
@@ -9336,29 +10422,29 @@
       <c r="K34" s="2">
         <v>6</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="7">
         <f>(I34+J34+K34)/3</f>
         <v>6</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="8">
+      <c r="N34" s="6">
         <v>3</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="6">
         <v>3</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="6">
         <v>3</v>
       </c>
-      <c r="Q34" s="9">
-        <f>(N34+O34+P34)/3</f>
+      <c r="Q34" s="7">
+        <f t="shared" ref="Q34:Q43" si="5">(N34+O34+P34)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>6000</v>
       </c>
       <c r="D35" s="2">
@@ -9370,8 +10456,8 @@
       <c r="F35" s="2">
         <v>496</v>
       </c>
-      <c r="G35" s="9">
-        <f t="shared" ref="G35:G43" si="5">(D35+E35+F35)/3</f>
+      <c r="G35" s="7">
+        <f t="shared" ref="G35:G43" si="6">(D35+E35+F35)/3</f>
         <v>492.66666666666669</v>
       </c>
       <c r="H35" s="2"/>
@@ -9384,29 +10470,29 @@
       <c r="K35" s="2">
         <v>263</v>
       </c>
-      <c r="L35" s="9">
-        <f t="shared" ref="L35:L43" si="6">(I35+J35+K35)/3</f>
+      <c r="L35" s="7">
+        <f t="shared" ref="L35:L43" si="7">(I35+J35+K35)/3</f>
         <v>251</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="8">
+      <c r="N35" s="6">
         <v>130</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="6">
         <v>130</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="6">
         <v>128</v>
       </c>
-      <c r="Q35" s="9">
-        <f>(N35+O35+P35)/3</f>
+      <c r="Q35" s="7">
+        <f t="shared" si="5"/>
         <v>129.33333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>11000</v>
       </c>
       <c r="D36" s="2">
@@ -9418,8 +10504,8 @@
       <c r="F36" s="2">
         <v>1664</v>
       </c>
-      <c r="G36" s="9">
-        <f t="shared" si="5"/>
+      <c r="G36" s="7">
+        <f t="shared" si="6"/>
         <v>1658.6666666666667</v>
       </c>
       <c r="H36" s="2"/>
@@ -9432,29 +10518,29 @@
       <c r="K36" s="2">
         <v>837</v>
       </c>
-      <c r="L36" s="9">
-        <f t="shared" si="6"/>
+      <c r="L36" s="7">
+        <f t="shared" si="7"/>
         <v>820.66666666666663</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="8">
+      <c r="N36" s="6">
         <v>427</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="6">
         <v>432</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="6">
         <v>422</v>
       </c>
-      <c r="Q36" s="9">
-        <f>(N36+O36+P36)/3</f>
+      <c r="Q36" s="7">
+        <f t="shared" si="5"/>
         <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>16000</v>
       </c>
       <c r="D37" s="2">
@@ -9466,8 +10552,8 @@
       <c r="F37" s="2">
         <v>3614</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="5"/>
+      <c r="G37" s="7">
+        <f t="shared" si="6"/>
         <v>3601.3333333333335</v>
       </c>
       <c r="H37" s="2"/>
@@ -9480,29 +10566,29 @@
       <c r="K37" s="2">
         <v>1796</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" si="6"/>
+      <c r="L37" s="7">
+        <f t="shared" si="7"/>
         <v>1815</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="8">
+      <c r="N37" s="6">
         <v>919</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="6">
         <v>919</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="6">
         <v>896</v>
       </c>
-      <c r="Q37" s="9">
-        <f>(N37+O37+P37)/3</f>
+      <c r="Q37" s="7">
+        <f t="shared" si="5"/>
         <v>911.33333333333337</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="8">
+      <c r="C38" s="6">
         <v>21000</v>
       </c>
       <c r="D38" s="2">
@@ -9514,8 +10600,8 @@
       <c r="F38" s="2">
         <v>6255</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="5"/>
+      <c r="G38" s="7">
+        <f t="shared" si="6"/>
         <v>6255.333333333333</v>
       </c>
       <c r="H38" s="2"/>
@@ -9528,29 +10614,29 @@
       <c r="K38" s="2">
         <v>3171</v>
       </c>
-      <c r="L38" s="9">
-        <f t="shared" si="6"/>
+      <c r="L38" s="7">
+        <f t="shared" si="7"/>
         <v>3150</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="8">
+      <c r="N38" s="6">
         <v>1593</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="6">
         <v>1604</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="6">
         <v>1592</v>
       </c>
-      <c r="Q38" s="9">
-        <f>(N38+O38+P38)/3</f>
+      <c r="Q38" s="7">
+        <f t="shared" si="5"/>
         <v>1596.3333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="8">
+      <c r="C39" s="6">
         <v>26000</v>
       </c>
       <c r="D39" s="2">
@@ -9562,8 +10648,8 @@
       <c r="F39" s="2">
         <v>9567</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="5"/>
+      <c r="G39" s="7">
+        <f t="shared" si="6"/>
         <v>9611</v>
       </c>
       <c r="H39" s="2"/>
@@ -9576,29 +10662,29 @@
       <c r="K39" s="2">
         <v>4869</v>
       </c>
-      <c r="L39" s="9">
-        <f t="shared" si="6"/>
+      <c r="L39" s="7">
+        <f t="shared" si="7"/>
         <v>4848</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="8">
+      <c r="N39" s="6">
         <v>2448</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="6">
         <v>2513</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="6">
         <v>2457</v>
       </c>
-      <c r="Q39" s="9">
-        <f>(N39+O39+P39)/3</f>
+      <c r="Q39" s="7">
+        <f t="shared" si="5"/>
         <v>2472.6666666666665</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="8">
+      <c r="C40" s="6">
         <v>31000</v>
       </c>
       <c r="D40" s="2">
@@ -9610,8 +10696,8 @@
       <c r="F40" s="2">
         <v>13665</v>
       </c>
-      <c r="G40" s="9">
-        <f t="shared" si="5"/>
+      <c r="G40" s="7">
+        <f t="shared" si="6"/>
         <v>13667.333333333334</v>
       </c>
       <c r="H40" s="2"/>
@@ -9624,29 +10710,29 @@
       <c r="K40" s="2">
         <v>6968</v>
       </c>
-      <c r="L40" s="9">
-        <f t="shared" si="6"/>
+      <c r="L40" s="7">
+        <f t="shared" si="7"/>
         <v>6975.666666666667</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="8">
+      <c r="N40" s="6">
         <v>3519</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="6">
         <v>3614</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="6">
         <v>3491</v>
       </c>
-      <c r="Q40" s="9">
-        <f>(N40+O40+P40)/3</f>
+      <c r="Q40" s="7">
+        <f t="shared" si="5"/>
         <v>3541.3333333333335</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="8">
+      <c r="C41" s="6">
         <v>36000</v>
       </c>
       <c r="D41" s="2">
@@ -9658,8 +10744,8 @@
       <c r="F41" s="2">
         <v>18647</v>
       </c>
-      <c r="G41" s="9">
-        <f t="shared" si="5"/>
+      <c r="G41" s="7">
+        <f t="shared" si="6"/>
         <v>18666.333333333332</v>
       </c>
       <c r="H41" s="2"/>
@@ -9672,29 +10758,29 @@
       <c r="K41" s="2">
         <v>9329</v>
       </c>
-      <c r="L41" s="9">
-        <f t="shared" si="6"/>
+      <c r="L41" s="7">
+        <f t="shared" si="7"/>
         <v>9356</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="8">
+      <c r="N41" s="6">
         <v>4738</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="6">
         <v>4729</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="6">
         <v>4736</v>
       </c>
-      <c r="Q41" s="9">
-        <f>(N41+O41+P41)/3</f>
+      <c r="Q41" s="7">
+        <f t="shared" si="5"/>
         <v>4734.333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="8">
+      <c r="C42" s="6">
         <v>41000</v>
       </c>
       <c r="D42" s="2">
@@ -9706,8 +10792,8 @@
       <c r="F42" s="2">
         <v>24478</v>
       </c>
-      <c r="G42" s="9">
-        <f t="shared" si="5"/>
+      <c r="G42" s="7">
+        <f t="shared" si="6"/>
         <v>24494</v>
       </c>
       <c r="H42" s="2"/>
@@ -9720,29 +10806,29 @@
       <c r="K42" s="2">
         <v>12123</v>
       </c>
-      <c r="L42" s="9">
-        <f t="shared" si="6"/>
+      <c r="L42" s="7">
+        <f t="shared" si="7"/>
         <v>12170.666666666666</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="8">
+      <c r="N42" s="6">
         <v>6116</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="6">
         <v>6180</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="6">
         <v>6163</v>
       </c>
-      <c r="Q42" s="9">
-        <f>(N42+O42+P42)/3</f>
+      <c r="Q42" s="7">
+        <f t="shared" si="5"/>
         <v>6153</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="8">
+      <c r="C43" s="6">
         <v>46000</v>
       </c>
       <c r="D43" s="2">
@@ -9754,8 +10840,8 @@
       <c r="F43" s="2">
         <v>30572</v>
       </c>
-      <c r="G43" s="9">
-        <f t="shared" si="5"/>
+      <c r="G43" s="7">
+        <f t="shared" si="6"/>
         <v>30631.666666666668</v>
       </c>
       <c r="H43" s="2"/>
@@ -9768,77 +10854,77 @@
       <c r="K43" s="2">
         <v>15478</v>
       </c>
-      <c r="L43" s="9">
-        <f t="shared" si="6"/>
+      <c r="L43" s="7">
+        <f t="shared" si="7"/>
         <v>15484.666666666666</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="8">
+      <c r="N43" s="6">
         <v>7742</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="6">
         <v>7751</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="6">
         <v>7769</v>
       </c>
-      <c r="Q43" s="9">
-        <f>(N43+O43+P43)/3</f>
+      <c r="Q43" s="7">
+        <f t="shared" si="5"/>
         <v>7754</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="7" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6" t="s">
+      <c r="J45" s="17"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="10"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="8">
+      <c r="C46" s="6">
         <v>1000</v>
       </c>
       <c r="D46" s="2">
@@ -9850,7 +10936,7 @@
       <c r="F46" s="2">
         <v>4</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="7">
         <f>(D46+E46+F46)/3</f>
         <v>4.666666666666667</v>
       </c>
@@ -9864,7 +10950,7 @@
       <c r="K46" s="2">
         <v>4</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="7">
         <f>(I46+J46+K46)/3</f>
         <v>4.333333333333333</v>
       </c>
@@ -9878,15 +10964,15 @@
       <c r="P46" s="2">
         <v>4</v>
       </c>
-      <c r="Q46" s="9">
-        <f>(N46+O46+P46)/3</f>
+      <c r="Q46" s="7">
+        <f t="shared" ref="Q46:Q55" si="8">(N46+O46+P46)/3</f>
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="8">
+      <c r="C47" s="6">
         <v>6000</v>
       </c>
       <c r="D47" s="2">
@@ -9898,8 +10984,8 @@
       <c r="F47" s="2">
         <v>133</v>
       </c>
-      <c r="G47" s="9">
-        <f t="shared" ref="G47:G55" si="7">(D47+E47+F47)/3</f>
+      <c r="G47" s="7">
+        <f t="shared" ref="G47:G55" si="9">(D47+E47+F47)/3</f>
         <v>131</v>
       </c>
       <c r="H47" s="2"/>
@@ -9912,8 +10998,8 @@
       <c r="K47" s="2">
         <v>128</v>
       </c>
-      <c r="L47" s="9">
-        <f t="shared" ref="L47:L55" si="8">(I47+J47+K47)/3</f>
+      <c r="L47" s="7">
+        <f t="shared" ref="L47:L55" si="10">(I47+J47+K47)/3</f>
         <v>127.33333333333333</v>
       </c>
       <c r="M47" s="2"/>
@@ -9926,15 +11012,15 @@
       <c r="P47" s="2">
         <v>127</v>
       </c>
-      <c r="Q47" s="9">
-        <f>(N47+O47+P47)/3</f>
+      <c r="Q47" s="7">
+        <f t="shared" si="8"/>
         <v>126.66666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="8">
+      <c r="C48" s="6">
         <v>11000</v>
       </c>
       <c r="D48" s="2">
@@ -9946,8 +11032,8 @@
       <c r="F48" s="2">
         <v>429</v>
       </c>
-      <c r="G48" s="9">
-        <f t="shared" si="7"/>
+      <c r="G48" s="7">
+        <f t="shared" si="9"/>
         <v>419.33333333333331</v>
       </c>
       <c r="H48" s="2"/>
@@ -9960,8 +11046,8 @@
       <c r="K48" s="2">
         <v>414</v>
       </c>
-      <c r="L48" s="9">
-        <f t="shared" si="8"/>
+      <c r="L48" s="7">
+        <f t="shared" si="10"/>
         <v>411</v>
       </c>
       <c r="M48" s="2"/>
@@ -9974,15 +11060,15 @@
       <c r="P48" s="2">
         <v>416</v>
       </c>
-      <c r="Q48" s="9">
-        <f>(N48+O48+P48)/3</f>
+      <c r="Q48" s="7">
+        <f t="shared" si="8"/>
         <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="8">
+      <c r="C49" s="6">
         <v>16000</v>
       </c>
       <c r="D49" s="2">
@@ -9994,8 +11080,8 @@
       <c r="F49" s="2">
         <v>884</v>
       </c>
-      <c r="G49" s="9">
-        <f t="shared" si="7"/>
+      <c r="G49" s="7">
+        <f t="shared" si="9"/>
         <v>872</v>
       </c>
       <c r="H49" s="2"/>
@@ -10008,8 +11094,8 @@
       <c r="K49" s="2">
         <v>874</v>
       </c>
-      <c r="L49" s="9">
-        <f t="shared" si="8"/>
+      <c r="L49" s="7">
+        <f t="shared" si="10"/>
         <v>868.66666666666663</v>
       </c>
       <c r="M49" s="2"/>
@@ -10022,15 +11108,15 @@
       <c r="P49" s="2">
         <v>855</v>
       </c>
-      <c r="Q49" s="9">
-        <f>(N49+O49+P49)/3</f>
+      <c r="Q49" s="7">
+        <f t="shared" si="8"/>
         <v>853</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="8">
+      <c r="C50" s="6">
         <v>21000</v>
       </c>
       <c r="D50" s="2">
@@ -10042,8 +11128,8 @@
       <c r="F50" s="2">
         <v>1541</v>
       </c>
-      <c r="G50" s="9">
-        <f t="shared" si="7"/>
+      <c r="G50" s="7">
+        <f t="shared" si="9"/>
         <v>1502</v>
       </c>
       <c r="H50" s="2"/>
@@ -10056,8 +11142,8 @@
       <c r="K50" s="2">
         <v>1494</v>
       </c>
-      <c r="L50" s="9">
-        <f t="shared" si="8"/>
+      <c r="L50" s="7">
+        <f t="shared" si="10"/>
         <v>1484.6666666666667</v>
       </c>
       <c r="M50" s="2"/>
@@ -10070,15 +11156,15 @@
       <c r="P50" s="2">
         <v>1481</v>
       </c>
-      <c r="Q50" s="9">
-        <f>(N50+O50+P50)/3</f>
+      <c r="Q50" s="7">
+        <f t="shared" si="8"/>
         <v>1473.3333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="8">
+      <c r="C51" s="6">
         <v>26000</v>
       </c>
       <c r="D51" s="2">
@@ -10090,8 +11176,8 @@
       <c r="F51" s="2">
         <v>2270</v>
       </c>
-      <c r="G51" s="9">
-        <f t="shared" si="7"/>
+      <c r="G51" s="7">
+        <f t="shared" si="9"/>
         <v>2267.6666666666665</v>
       </c>
       <c r="H51" s="2"/>
@@ -10104,8 +11190,8 @@
       <c r="K51" s="2">
         <v>2272</v>
       </c>
-      <c r="L51" s="9">
-        <f t="shared" si="8"/>
+      <c r="L51" s="7">
+        <f t="shared" si="10"/>
         <v>2268.3333333333335</v>
       </c>
       <c r="M51" s="2"/>
@@ -10118,15 +11204,15 @@
       <c r="P51" s="2">
         <v>2257</v>
       </c>
-      <c r="Q51" s="9">
-        <f>(N51+O51+P51)/3</f>
+      <c r="Q51" s="7">
+        <f t="shared" si="8"/>
         <v>2266.6666666666665</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="8">
+      <c r="C52" s="6">
         <v>31000</v>
       </c>
       <c r="D52" s="2">
@@ -10138,8 +11224,8 @@
       <c r="F52" s="2">
         <v>3202</v>
       </c>
-      <c r="G52" s="9">
-        <f t="shared" si="7"/>
+      <c r="G52" s="7">
+        <f t="shared" si="9"/>
         <v>3212.6666666666665</v>
       </c>
       <c r="H52" s="2"/>
@@ -10152,8 +11238,8 @@
       <c r="K52" s="2">
         <v>3227</v>
       </c>
-      <c r="L52" s="9">
-        <f t="shared" si="8"/>
+      <c r="L52" s="7">
+        <f t="shared" si="10"/>
         <v>3227</v>
       </c>
       <c r="M52" s="2"/>
@@ -10166,15 +11252,15 @@
       <c r="P52" s="2">
         <v>3189</v>
       </c>
-      <c r="Q52" s="9">
-        <f>(N52+O52+P52)/3</f>
+      <c r="Q52" s="7">
+        <f t="shared" si="8"/>
         <v>3189.6666666666665</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="8">
+      <c r="C53" s="6">
         <v>36000</v>
       </c>
       <c r="D53" s="2">
@@ -10186,8 +11272,8 @@
       <c r="F53" s="2">
         <v>4324</v>
       </c>
-      <c r="G53" s="9">
-        <f t="shared" si="7"/>
+      <c r="G53" s="7">
+        <f t="shared" si="9"/>
         <v>4325</v>
       </c>
       <c r="H53" s="2"/>
@@ -10200,8 +11286,8 @@
       <c r="K53" s="2">
         <v>4312</v>
       </c>
-      <c r="L53" s="9">
-        <f t="shared" si="8"/>
+      <c r="L53" s="7">
+        <f t="shared" si="10"/>
         <v>4349.333333333333</v>
       </c>
       <c r="M53" s="2"/>
@@ -10214,15 +11300,15 @@
       <c r="P53" s="2">
         <v>4300</v>
       </c>
-      <c r="Q53" s="9">
-        <f>(N53+O53+P53)/3</f>
+      <c r="Q53" s="7">
+        <f t="shared" si="8"/>
         <v>4300</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="8">
+      <c r="C54" s="6">
         <v>41000</v>
       </c>
       <c r="D54" s="2">
@@ -10234,8 +11320,8 @@
       <c r="F54" s="2">
         <v>5581</v>
       </c>
-      <c r="G54" s="9">
-        <f t="shared" si="7"/>
+      <c r="G54" s="7">
+        <f t="shared" si="9"/>
         <v>5602</v>
       </c>
       <c r="H54" s="2"/>
@@ -10248,8 +11334,8 @@
       <c r="K54" s="2">
         <v>5612</v>
       </c>
-      <c r="L54" s="9">
-        <f t="shared" si="8"/>
+      <c r="L54" s="7">
+        <f t="shared" si="10"/>
         <v>5751.666666666667</v>
       </c>
       <c r="M54" s="2"/>
@@ -10262,247 +11348,254 @@
       <c r="P54" s="2">
         <v>5553</v>
       </c>
-      <c r="Q54" s="9">
-        <f>(N54+O54+P54)/3</f>
+      <c r="Q54" s="7">
+        <f t="shared" si="8"/>
         <v>5566</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12">
         <v>46000</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="11">
         <v>7640</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="11">
         <v>7643</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="11">
         <v>7692</v>
       </c>
-      <c r="G55" s="17">
-        <f t="shared" si="7"/>
+      <c r="G55" s="13">
+        <f t="shared" si="9"/>
         <v>7658.333333333333</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15">
+      <c r="H55" s="11"/>
+      <c r="I55" s="11">
         <v>7693</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="11">
         <v>7642</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="11">
         <v>7684</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="13">
+        <f t="shared" si="10"/>
+        <v>7673</v>
+      </c>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11">
+        <v>7637</v>
+      </c>
+      <c r="O55" s="11">
+        <v>7648</v>
+      </c>
+      <c r="P55" s="11">
+        <v>7605</v>
+      </c>
+      <c r="Q55" s="13">
         <f t="shared" si="8"/>
-        <v>7673</v>
-      </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15">
-        <v>7637</v>
-      </c>
-      <c r="O55" s="15">
-        <v>7648</v>
-      </c>
-      <c r="P55" s="15">
-        <v>7605</v>
-      </c>
-      <c r="Q55" s="17">
-        <f>(N55+O55+P55)/3</f>
         <v>7630</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="19"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="14"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="18" t="s">
         <v>10</v>
       </c>
       <c r="J63" s="18"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13" t="s">
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="14"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="10"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="8">
+      <c r="C64" s="6">
         <v>1000</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="12"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64" s="12"/>
-      <c r="L64" s="2"/>
+      <c r="I64" s="2">
+        <v>6</v>
+      </c>
+      <c r="J64" s="22">
+        <v>7</v>
+      </c>
+      <c r="K64" s="22">
+        <v>7</v>
+      </c>
+      <c r="L64" s="7">
+        <f>(I64+J64+K64)/3</f>
+        <v>6.666666666666667</v>
+      </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2">
         <v>3</v>
@@ -10513,15 +11606,15 @@
       <c r="P64" s="2">
         <v>5</v>
       </c>
-      <c r="Q64" s="9">
-        <f>(N64+O64+P64)/3</f>
+      <c r="Q64" s="7">
+        <f t="shared" ref="Q64:Q73" si="11">(N64+O64+P64)/3</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="8">
+      <c r="C65" s="6">
         <v>6000</v>
       </c>
       <c r="D65" s="2"/>
@@ -10529,10 +11622,19 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="I65" s="2">
+        <v>243</v>
+      </c>
+      <c r="J65" s="2">
+        <v>244</v>
+      </c>
+      <c r="K65" s="2">
+        <v>244</v>
+      </c>
+      <c r="L65" s="7">
+        <f t="shared" ref="L64:L73" si="12">(I65+J65+K65)/3</f>
+        <v>243.66666666666666</v>
+      </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2">
         <v>132</v>
@@ -10543,15 +11645,15 @@
       <c r="P65" s="2">
         <v>154</v>
       </c>
-      <c r="Q65" s="9">
-        <f>(N65+O65+P65)/3</f>
+      <c r="Q65" s="7">
+        <f t="shared" si="11"/>
         <v>143.66666666666666</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="8">
+      <c r="C66" s="6">
         <v>11000</v>
       </c>
       <c r="D66" s="2"/>
@@ -10559,10 +11661,19 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="I66" s="2">
+        <v>835</v>
+      </c>
+      <c r="J66" s="2">
+        <v>826</v>
+      </c>
+      <c r="K66" s="2">
+        <v>834</v>
+      </c>
+      <c r="L66" s="7">
+        <f t="shared" si="12"/>
+        <v>831.66666666666663</v>
+      </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2">
         <v>451</v>
@@ -10573,15 +11684,15 @@
       <c r="P66" s="2">
         <v>477</v>
       </c>
-      <c r="Q66" s="9">
-        <f>(N66+O66+P66)/3</f>
+      <c r="Q66" s="7">
+        <f t="shared" si="11"/>
         <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="8">
+      <c r="C67" s="6">
         <v>16000</v>
       </c>
       <c r="D67" s="2"/>
@@ -10589,10 +11700,19 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="I67" s="2">
+        <v>1790</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1790</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1854</v>
+      </c>
+      <c r="L67" s="7">
+        <f t="shared" si="12"/>
+        <v>1811.3333333333333</v>
+      </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2">
         <v>962</v>
@@ -10603,15 +11723,15 @@
       <c r="P67" s="2">
         <v>1043</v>
       </c>
-      <c r="Q67" s="9">
-        <f>(N67+O67+P67)/3</f>
+      <c r="Q67" s="7">
+        <f t="shared" si="11"/>
         <v>1014.3333333333334</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="8">
+      <c r="C68" s="6">
         <v>21000</v>
       </c>
       <c r="D68" s="2"/>
@@ -10619,10 +11739,19 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="I68" s="2">
+        <v>3127</v>
+      </c>
+      <c r="J68" s="2">
+        <v>3177</v>
+      </c>
+      <c r="K68" s="2">
+        <v>3134</v>
+      </c>
+      <c r="L68" s="7">
+        <f t="shared" si="12"/>
+        <v>3146</v>
+      </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2">
         <v>1678</v>
@@ -10633,15 +11762,15 @@
       <c r="P68" s="2">
         <v>1783</v>
       </c>
-      <c r="Q68" s="9">
-        <f>(N68+O68+P68)/3</f>
+      <c r="Q68" s="7">
+        <f t="shared" si="11"/>
         <v>1744.3333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="8">
+      <c r="C69" s="6">
         <v>26000</v>
       </c>
       <c r="D69" s="2"/>
@@ -10649,10 +11778,19 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="I69" s="2">
+        <v>4866</v>
+      </c>
+      <c r="J69" s="2">
+        <v>4918</v>
+      </c>
+      <c r="K69" s="2">
+        <v>4846</v>
+      </c>
+      <c r="L69" s="7">
+        <f t="shared" si="12"/>
+        <v>4876.666666666667</v>
+      </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2">
         <v>2626</v>
@@ -10663,15 +11801,15 @@
       <c r="P69" s="2">
         <v>2756</v>
       </c>
-      <c r="Q69" s="9">
-        <f>(N69+O69+P69)/3</f>
+      <c r="Q69" s="7">
+        <f t="shared" si="11"/>
         <v>2715.6666666666665</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="8">
+      <c r="C70" s="6">
         <v>31000</v>
       </c>
       <c r="D70" s="2"/>
@@ -10679,10 +11817,19 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="I70" s="2">
+        <v>6847</v>
+      </c>
+      <c r="J70" s="2">
+        <v>7019</v>
+      </c>
+      <c r="K70" s="2">
+        <v>7028</v>
+      </c>
+      <c r="L70" s="7">
+        <f t="shared" si="12"/>
+        <v>6964.666666666667</v>
+      </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2">
         <v>3978</v>
@@ -10693,15 +11840,15 @@
       <c r="P70" s="2">
         <v>3950</v>
       </c>
-      <c r="Q70" s="9">
-        <f>(N70+O70+P70)/3</f>
+      <c r="Q70" s="7">
+        <f t="shared" si="11"/>
         <v>3958</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="8">
+      <c r="C71" s="6">
         <v>36000</v>
       </c>
       <c r="D71" s="2"/>
@@ -10709,10 +11856,19 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="I71" s="2">
+        <v>9315</v>
+      </c>
+      <c r="J71" s="2">
+        <v>9411</v>
+      </c>
+      <c r="K71" s="2">
+        <v>9606</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="12"/>
+        <v>9444</v>
+      </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2">
         <v>5463</v>
@@ -10723,15 +11879,15 @@
       <c r="P71" s="2">
         <v>5394</v>
       </c>
-      <c r="Q71" s="9">
-        <f>(N71+O71+P71)/3</f>
+      <c r="Q71" s="7">
+        <f t="shared" si="11"/>
         <v>5403.666666666667</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="8">
+      <c r="C72" s="6">
         <v>41000</v>
       </c>
       <c r="D72" s="2"/>
@@ -10739,10 +11895,19 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="I72" s="2">
+        <v>12170</v>
+      </c>
+      <c r="J72" s="2">
+        <v>12410</v>
+      </c>
+      <c r="K72" s="2">
+        <v>12262</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" si="12"/>
+        <v>12280.666666666666</v>
+      </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2">
         <v>6919</v>
@@ -10753,15 +11918,15 @@
       <c r="P72" s="2">
         <v>7041</v>
       </c>
-      <c r="Q72" s="9">
-        <f>(N72+O72+P72)/3</f>
+      <c r="Q72" s="7">
+        <f t="shared" si="11"/>
         <v>7005.333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="8">
+      <c r="C73" s="6">
         <v>46000</v>
       </c>
       <c r="D73" s="2"/>
@@ -10769,10 +11934,19 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="I73" s="2">
+        <v>15254</v>
+      </c>
+      <c r="J73" s="2">
+        <v>15483</v>
+      </c>
+      <c r="K73" s="2">
+        <v>15648</v>
+      </c>
+      <c r="L73" s="7">
+        <f t="shared" si="12"/>
+        <v>15461.666666666666</v>
+      </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2">
         <v>8853</v>
@@ -10783,78 +11957,85 @@
       <c r="P73" s="2">
         <v>9151</v>
       </c>
-      <c r="Q73" s="9">
-        <f>(N73+O73+P73)/3</f>
+      <c r="Q73" s="7">
+        <f t="shared" si="11"/>
         <v>8966.6666666666661</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="10"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="8"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="7" t="s">
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6" t="s">
+      <c r="J75" s="17"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="10"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="8"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="8">
+      <c r="C76" s="6">
         <v>1000</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="12"/>
+      <c r="F76" s="21"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76" s="12"/>
-      <c r="L76" s="2"/>
+      <c r="I76" s="22">
+        <v>6</v>
+      </c>
+      <c r="J76" s="22">
+        <v>5</v>
+      </c>
+      <c r="K76" s="22">
+        <v>5</v>
+      </c>
+      <c r="L76" s="7">
+        <f t="shared" ref="L76:L85" si="13">(I76+J76+K76)/3</f>
+        <v>5.333333333333333</v>
+      </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2">
         <v>4</v>
@@ -10865,15 +12046,15 @@
       <c r="P76" s="2">
         <v>4</v>
       </c>
-      <c r="Q76" s="9">
-        <f>(N76+O76+P76)/3</f>
+      <c r="Q76" s="7">
+        <f t="shared" ref="Q76:Q83" si="14">(N76+O76+P76)/3</f>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="8">
+      <c r="C77" s="6">
         <v>6000</v>
       </c>
       <c r="D77" s="2"/>
@@ -10881,10 +12062,19 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="I77" s="2">
+        <v>136</v>
+      </c>
+      <c r="J77" s="2">
+        <v>135</v>
+      </c>
+      <c r="K77" s="2">
+        <v>135</v>
+      </c>
+      <c r="L77" s="7">
+        <f t="shared" si="13"/>
+        <v>135.33333333333334</v>
+      </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2">
         <v>124</v>
@@ -10895,15 +12085,15 @@
       <c r="P77" s="2">
         <v>128</v>
       </c>
-      <c r="Q77" s="9">
-        <f>(N77+O77+P77)/3</f>
+      <c r="Q77" s="7">
+        <f t="shared" si="14"/>
         <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="8">
+      <c r="C78" s="6">
         <v>11000</v>
       </c>
       <c r="D78" s="2"/>
@@ -10911,10 +12101,19 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="I78" s="2">
+        <v>429</v>
+      </c>
+      <c r="J78" s="2">
+        <v>428</v>
+      </c>
+      <c r="K78" s="2">
+        <v>442</v>
+      </c>
+      <c r="L78" s="7">
+        <f t="shared" si="13"/>
+        <v>433</v>
+      </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2">
         <v>406</v>
@@ -10925,15 +12124,15 @@
       <c r="P78" s="2">
         <v>418</v>
       </c>
-      <c r="Q78" s="9">
-        <f>(N78+O78+P78)/3</f>
+      <c r="Q78" s="7">
+        <f t="shared" si="14"/>
         <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="8">
+      <c r="C79" s="6">
         <v>16000</v>
       </c>
       <c r="D79" s="2"/>
@@ -10941,10 +12140,19 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="I79" s="2">
+        <v>895</v>
+      </c>
+      <c r="J79" s="2">
+        <v>913</v>
+      </c>
+      <c r="K79" s="2">
+        <v>891</v>
+      </c>
+      <c r="L79" s="7">
+        <f t="shared" si="13"/>
+        <v>899.66666666666663</v>
+      </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2">
         <v>854</v>
@@ -10955,15 +12163,15 @@
       <c r="P79" s="2">
         <v>871</v>
       </c>
-      <c r="Q79" s="9">
-        <f>(N79+O79+P79)/3</f>
+      <c r="Q79" s="7">
+        <f t="shared" si="14"/>
         <v>861.33333333333337</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="8">
+      <c r="C80" s="6">
         <v>21000</v>
       </c>
       <c r="D80" s="2"/>
@@ -10971,10 +12179,19 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="I80" s="2">
+        <v>1525</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1508</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1511</v>
+      </c>
+      <c r="L80" s="7">
+        <f t="shared" si="13"/>
+        <v>1514.6666666666667</v>
+      </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2">
         <v>1468</v>
@@ -10985,15 +12202,15 @@
       <c r="P80" s="2">
         <v>1533</v>
       </c>
-      <c r="Q80" s="9">
-        <f>(N80+O80+P80)/3</f>
+      <c r="Q80" s="7">
+        <f t="shared" si="14"/>
         <v>1501.6666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="8">
+      <c r="C81" s="6">
         <v>26000</v>
       </c>
       <c r="D81" s="2"/>
@@ -11001,10 +12218,19 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="I81" s="2">
+        <v>2326</v>
+      </c>
+      <c r="J81" s="2">
+        <v>2312</v>
+      </c>
+      <c r="K81" s="2">
+        <v>2307</v>
+      </c>
+      <c r="L81" s="7">
+        <f t="shared" si="13"/>
+        <v>2315</v>
+      </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2">
         <v>2228</v>
@@ -11015,15 +12241,15 @@
       <c r="P81" s="2">
         <v>2287</v>
       </c>
-      <c r="Q81" s="9">
-        <f>(N81+O81+P81)/3</f>
+      <c r="Q81" s="7">
+        <f t="shared" si="14"/>
         <v>2256</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="8">
+      <c r="C82" s="6">
         <v>31000</v>
       </c>
       <c r="D82" s="2"/>
@@ -11031,10 +12257,19 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="I82" s="2">
+        <v>3253</v>
+      </c>
+      <c r="J82" s="2">
+        <v>3260</v>
+      </c>
+      <c r="K82" s="2">
+        <v>3258</v>
+      </c>
+      <c r="L82" s="7">
+        <f t="shared" si="13"/>
+        <v>3257</v>
+      </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2">
         <v>3168</v>
@@ -11045,15 +12280,15 @@
       <c r="P82" s="2">
         <v>3193</v>
       </c>
-      <c r="Q82" s="9">
-        <f>(N82+O82+P82)/3</f>
+      <c r="Q82" s="7">
+        <f t="shared" si="14"/>
         <v>3195.6666666666665</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="8">
+      <c r="C83" s="6">
         <v>36000</v>
       </c>
       <c r="D83" s="2"/>
@@ -11061,10 +12296,19 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="I83" s="2">
+        <v>4436</v>
+      </c>
+      <c r="J83" s="2">
+        <v>4403</v>
+      </c>
+      <c r="K83" s="2">
+        <v>4407</v>
+      </c>
+      <c r="L83" s="7">
+        <f t="shared" si="13"/>
+        <v>4415.333333333333</v>
+      </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2">
         <v>4475</v>
@@ -11075,15 +12319,15 @@
       <c r="P83" s="2">
         <v>4295</v>
       </c>
-      <c r="Q83" s="9">
-        <f>(N83+O83+P83)/3</f>
+      <c r="Q83" s="7">
+        <f t="shared" si="14"/>
         <v>4441.333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="8">
+      <c r="C84" s="6">
         <v>41000</v>
       </c>
       <c r="D84" s="2"/>
@@ -11091,10 +12335,19 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="I84" s="2">
+        <v>5904</v>
+      </c>
+      <c r="J84" s="2">
+        <v>5707</v>
+      </c>
+      <c r="K84" s="2">
+        <v>5742</v>
+      </c>
+      <c r="L84" s="7">
+        <f t="shared" si="13"/>
+        <v>5784.333333333333</v>
+      </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2">
         <v>5596</v>
@@ -11105,15 +12358,15 @@
       <c r="P84" s="2">
         <v>5551</v>
       </c>
-      <c r="Q84" s="9">
-        <f t="shared" ref="Q84:Q85" si="9">(N84+O84+P84)/3</f>
+      <c r="Q84" s="7">
+        <f t="shared" ref="Q84:Q85" si="15">(N84+O84+P84)/3</f>
         <v>5562.666666666667</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="8">
+      <c r="C85" s="6">
         <v>46000</v>
       </c>
       <c r="D85" s="2"/>
@@ -11121,10 +12374,19 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="I85" s="2">
+        <v>7762</v>
+      </c>
+      <c r="J85" s="2">
+        <v>7855</v>
+      </c>
+      <c r="K85" s="2">
+        <v>7878</v>
+      </c>
+      <c r="L85" s="7">
+        <f t="shared" si="13"/>
+        <v>7831.666666666667</v>
+      </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2">
         <v>7712</v>
@@ -11135,8 +12397,8 @@
       <c r="P85" s="2">
         <v>7604</v>
       </c>
-      <c r="Q85" s="9">
-        <f t="shared" si="9"/>
+      <c r="Q85" s="7">
+        <f t="shared" si="15"/>
         <v>7669.666666666667</v>
       </c>
     </row>
@@ -11144,7 +12406,14 @@
       <c r="Q86" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D63:F63"/>
     <mergeCell ref="D75:F75"/>
@@ -11153,15 +12422,6 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="I75:J75"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
